--- a/Processed Results/Mi 9T/Display/Display - Raw.xlsx
+++ b/Processed Results/Mi 9T/Display/Display - Raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49752A-4858-4F96-943B-94DA883438B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A823A-F712-4A9C-8DCD-AD0B36D78BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="90" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -369,152 +369,152 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>359.35199999999998</v>
+        <v>131.300928</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>348.41520000000003</v>
+        <v>119.22372</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>346.8528</v>
+        <v>117.056016</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>346.8528</v>
+        <v>117.36568800000001</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>345.29039999999998</v>
+        <v>119.843064</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>345.29039999999998</v>
+        <v>118.294704</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>346.8528</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>345.29039999999998</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>345.29039999999998</v>
+        <v>118.294704</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>346.8528</v>
+        <v>117.36568800000001</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>345.29039999999998</v>
+        <v>117.056016</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>345.29039999999998</v>
+        <v>116.74634399999999</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>345.29039999999998</v>
+        <v>117.52052399999999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>345.29039999999998</v>
+        <v>118.604376</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>345.29039999999998</v>
+        <v>116.901179999999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>342.16559999999998</v>
+        <v>113.030279999999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>346.8528</v>
+        <v>117.675359999999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>345.29039999999998</v>
+        <v>117.056016</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>345.29039999999998</v>
+        <v>117.210852</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>345.29039999999998</v>
+        <v>117.985032</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>346.8528</v>
+        <v>117.830196</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>346.8528</v>
+        <v>119.843064</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>345.29039999999998</v>
+        <v>117.985032</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>345.29039999999998</v>
+        <v>117.675359999999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>345.29039999999998</v>
+        <v>117.675359999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>345.29039999999998</v>
+        <v>117.36568800000001</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>345.29039999999998</v>
+        <v>116.901179999999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>345.29039999999998</v>
+        <v>117.210852</v>
       </c>
     </row>
   </sheetData>
